--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H2">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I2">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J2">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50217222572062</v>
+        <v>3.024839333333334</v>
       </c>
       <c r="N2">
-        <v>1.50217222572062</v>
+        <v>9.074518000000001</v>
       </c>
       <c r="O2">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970389</v>
       </c>
       <c r="P2">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970388</v>
       </c>
       <c r="Q2">
-        <v>9.37627011283227</v>
+        <v>20.14599862979467</v>
       </c>
       <c r="R2">
-        <v>9.37627011283227</v>
+        <v>181.313987668152</v>
       </c>
       <c r="S2">
-        <v>0.01607116219361055</v>
+        <v>0.02702529318476725</v>
       </c>
       <c r="T2">
-        <v>0.01607116219361055</v>
+        <v>0.02702529318476724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H3">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I3">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J3">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.60779792558486</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N3">
-        <v>1.60779792558486</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O3">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501936</v>
       </c>
       <c r="P3">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501934</v>
       </c>
       <c r="Q3">
-        <v>10.03556541587847</v>
+        <v>10.83040033438267</v>
       </c>
       <c r="R3">
-        <v>10.03556541587847</v>
+        <v>97.47360300944399</v>
       </c>
       <c r="S3">
-        <v>0.01720121088261323</v>
+        <v>0.01452867885696247</v>
       </c>
       <c r="T3">
-        <v>0.01720121088261323</v>
+        <v>0.01452867885696247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H4">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I4">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J4">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.96185002310328</v>
+        <v>4.640628666666666</v>
       </c>
       <c r="N4">
-        <v>3.96185002310328</v>
+        <v>13.921886</v>
       </c>
       <c r="O4">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921178</v>
       </c>
       <c r="P4">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921177</v>
       </c>
       <c r="Q4">
-        <v>24.72910584225909</v>
+        <v>30.90745935818934</v>
       </c>
       <c r="R4">
-        <v>24.72910584225909</v>
+        <v>278.167134223704</v>
       </c>
       <c r="S4">
-        <v>0.04238630778671738</v>
+        <v>0.04146149149022643</v>
       </c>
       <c r="T4">
-        <v>0.04238630778671738</v>
+        <v>0.04146149149022641</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H5">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I5">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J5">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.6684542341954</v>
+        <v>7.498988000000001</v>
       </c>
       <c r="N5">
-        <v>6.6684542341954</v>
+        <v>22.496964</v>
       </c>
       <c r="O5">
-        <v>0.4853217654823264</v>
+        <v>0.4466183243958241</v>
       </c>
       <c r="P5">
-        <v>0.4853217654823264</v>
+        <v>0.446618324395824</v>
       </c>
       <c r="Q5">
-        <v>41.62320875349803</v>
+        <v>49.94466988974401</v>
       </c>
       <c r="R5">
-        <v>41.62320875349803</v>
+        <v>449.5020290076961</v>
       </c>
       <c r="S5">
-        <v>0.07134322399484647</v>
+        <v>0.06699937648117003</v>
       </c>
       <c r="T5">
-        <v>0.07134322399484647</v>
+        <v>0.06699937648117001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H6">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I6">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J6">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.50217222572062</v>
+        <v>3.024839333333334</v>
       </c>
       <c r="N6">
-        <v>1.50217222572062</v>
+        <v>9.074518000000001</v>
       </c>
       <c r="O6">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970389</v>
       </c>
       <c r="P6">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970388</v>
       </c>
       <c r="Q6">
-        <v>24.42355217553587</v>
+        <v>49.63861468181934</v>
       </c>
       <c r="R6">
-        <v>24.42355217553587</v>
+        <v>446.747532136374</v>
       </c>
       <c r="S6">
-        <v>0.041862581136603</v>
+        <v>0.06658881198760075</v>
       </c>
       <c r="T6">
-        <v>0.041862581136603</v>
+        <v>0.06658881198760074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H7">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I7">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J7">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.60779792558486</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N7">
-        <v>1.60779792558486</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O7">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501936</v>
       </c>
       <c r="P7">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501934</v>
       </c>
       <c r="Q7">
-        <v>26.14090172277184</v>
+        <v>26.68550112245033</v>
       </c>
       <c r="R7">
-        <v>26.14090172277184</v>
+        <v>240.169510102053</v>
       </c>
       <c r="S7">
-        <v>0.04480616134329735</v>
+        <v>0.03579785270858057</v>
       </c>
       <c r="T7">
-        <v>0.04480616134329735</v>
+        <v>0.03579785270858057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H8">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I8">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J8">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.96185002310328</v>
+        <v>4.640628666666666</v>
       </c>
       <c r="N8">
-        <v>3.96185002310328</v>
+        <v>13.921886</v>
       </c>
       <c r="O8">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921178</v>
       </c>
       <c r="P8">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921177</v>
       </c>
       <c r="Q8">
-        <v>64.41501786154527</v>
+        <v>76.15425246808866</v>
       </c>
       <c r="R8">
-        <v>64.41501786154527</v>
+        <v>685.3882722127979</v>
       </c>
       <c r="S8">
-        <v>0.1104089565786311</v>
+        <v>0.1021587977859332</v>
       </c>
       <c r="T8">
-        <v>0.1104089565786311</v>
+        <v>0.1021587977859332</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H9">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I9">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J9">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.6684542341954</v>
+        <v>7.498988000000001</v>
       </c>
       <c r="N9">
-        <v>6.6684542341954</v>
+        <v>22.496964</v>
       </c>
       <c r="O9">
-        <v>0.4853217654823264</v>
+        <v>0.4466183243958241</v>
       </c>
       <c r="P9">
-        <v>0.4853217654823264</v>
+        <v>0.446618324395824</v>
       </c>
       <c r="Q9">
-        <v>108.4212163761142</v>
+        <v>123.060875245028</v>
       </c>
       <c r="R9">
-        <v>108.4212163761142</v>
+        <v>1107.547877205252</v>
       </c>
       <c r="S9">
-        <v>0.1858366848054397</v>
+        <v>0.1650827191138771</v>
       </c>
       <c r="T9">
-        <v>0.1858366848054397</v>
+        <v>0.1650827191138771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H10">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I10">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J10">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.50217222572062</v>
+        <v>3.024839333333334</v>
       </c>
       <c r="N10">
-        <v>1.50217222572062</v>
+        <v>9.074518000000001</v>
       </c>
       <c r="O10">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970389</v>
       </c>
       <c r="P10">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970388</v>
       </c>
       <c r="Q10">
-        <v>19.86084348674257</v>
+        <v>43.79633109920334</v>
       </c>
       <c r="R10">
-        <v>19.86084348674257</v>
+        <v>394.16697989283</v>
       </c>
       <c r="S10">
-        <v>0.03404198398044416</v>
+        <v>0.0587515521133128</v>
       </c>
       <c r="T10">
-        <v>0.03404198398044416</v>
+        <v>0.05875155211331278</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H11">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I11">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J11">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.60779792558486</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N11">
-        <v>1.60779792558486</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O11">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501936</v>
       </c>
       <c r="P11">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501934</v>
       </c>
       <c r="Q11">
-        <v>21.25736477588767</v>
+        <v>23.54471514159833</v>
       </c>
       <c r="R11">
-        <v>21.25736477588767</v>
+        <v>211.902436274385</v>
       </c>
       <c r="S11">
-        <v>0.03643565650422999</v>
+        <v>0.03158457623999197</v>
       </c>
       <c r="T11">
-        <v>0.03643565650422999</v>
+        <v>0.03158457623999196</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H12">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I12">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J12">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.96185002310328</v>
+        <v>4.640628666666666</v>
       </c>
       <c r="N12">
-        <v>3.96185002310328</v>
+        <v>13.921886</v>
       </c>
       <c r="O12">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921178</v>
       </c>
       <c r="P12">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921177</v>
       </c>
       <c r="Q12">
-        <v>52.3812661953956</v>
+        <v>67.19117519865667</v>
       </c>
       <c r="R12">
-        <v>52.3812661953956</v>
+        <v>604.7205767879099</v>
       </c>
       <c r="S12">
-        <v>0.0897828043350388</v>
+        <v>0.09013508054583172</v>
       </c>
       <c r="T12">
-        <v>0.0897828043350388</v>
+        <v>0.09013508054583169</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H13">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I13">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J13">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.6684542341954</v>
+        <v>7.498988000000001</v>
       </c>
       <c r="N13">
-        <v>6.6684542341954</v>
+        <v>22.496964</v>
       </c>
       <c r="O13">
-        <v>0.4853217654823264</v>
+        <v>0.4466183243958241</v>
       </c>
       <c r="P13">
-        <v>0.4853217654823264</v>
+        <v>0.446618324395824</v>
       </c>
       <c r="Q13">
-        <v>88.16640567317516</v>
+        <v>108.57705985826</v>
       </c>
       <c r="R13">
-        <v>88.16640567317516</v>
+        <v>977.19353872434</v>
       </c>
       <c r="S13">
-        <v>0.1511194311330747</v>
+        <v>0.1456530862396572</v>
       </c>
       <c r="T13">
-        <v>0.1511194311330747</v>
+        <v>0.1456530862396572</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H14">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I14">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J14">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.50217222572062</v>
+        <v>3.024839333333334</v>
       </c>
       <c r="N14">
-        <v>1.50217222572062</v>
+        <v>9.074518000000001</v>
       </c>
       <c r="O14">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970389</v>
       </c>
       <c r="P14">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970388</v>
       </c>
       <c r="Q14">
-        <v>10.12265813421582</v>
+        <v>20.71242701851533</v>
       </c>
       <c r="R14">
-        <v>10.12265813421582</v>
+        <v>186.411843166638</v>
       </c>
       <c r="S14">
-        <v>0.01735048998671736</v>
+        <v>0.02778514101135807</v>
       </c>
       <c r="T14">
-        <v>0.01735048998671736</v>
+        <v>0.02778514101135807</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H15">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I15">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J15">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.60779792558486</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N15">
-        <v>1.60779792558486</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O15">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501936</v>
       </c>
       <c r="P15">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501934</v>
       </c>
       <c r="Q15">
-        <v>10.83443593945387</v>
+        <v>11.13490974706233</v>
       </c>
       <c r="R15">
-        <v>10.83443593945387</v>
+        <v>100.214187723561</v>
       </c>
       <c r="S15">
-        <v>0.01857049500109269</v>
+        <v>0.01493716970948434</v>
       </c>
       <c r="T15">
-        <v>0.01857049500109269</v>
+        <v>0.01493716970948434</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H16">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I16">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J16">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.96185002310328</v>
+        <v>4.640628666666666</v>
       </c>
       <c r="N16">
-        <v>3.96185002310328</v>
+        <v>13.921886</v>
       </c>
       <c r="O16">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921178</v>
       </c>
       <c r="P16">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921177</v>
       </c>
       <c r="Q16">
-        <v>26.69764004168742</v>
+        <v>31.77645884168066</v>
       </c>
       <c r="R16">
-        <v>26.69764004168742</v>
+        <v>285.988129575126</v>
       </c>
       <c r="S16">
-        <v>0.04576042478867794</v>
+        <v>0.04262722997012643</v>
       </c>
       <c r="T16">
-        <v>0.04576042478867794</v>
+        <v>0.04262722997012643</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H17">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I17">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J17">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.6684542341954</v>
+        <v>7.498988000000001</v>
       </c>
       <c r="N17">
-        <v>6.6684542341954</v>
+        <v>22.496964</v>
       </c>
       <c r="O17">
-        <v>0.4853217654823264</v>
+        <v>0.4466183243958241</v>
       </c>
       <c r="P17">
-        <v>0.4853217654823264</v>
+        <v>0.446618324395824</v>
       </c>
       <c r="Q17">
-        <v>44.93658006760295</v>
+        <v>51.348922883636</v>
       </c>
       <c r="R17">
-        <v>44.93658006760295</v>
+        <v>462.1403059527241</v>
       </c>
       <c r="S17">
-        <v>0.07702242554896549</v>
+        <v>0.06888314256111963</v>
       </c>
       <c r="T17">
-        <v>0.07702242554896549</v>
+        <v>0.06888314256111962</v>
       </c>
     </row>
   </sheetData>
